--- a/test_data/test_demo.xlsx
+++ b/test_data/test_demo.xlsx
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>{"result":true,"errorCode":0,"errorMsg":"成功","isNew":false,"userID":60425,"userKey":"9r9uSFt36kP1h1TK0AAbCHXAxzRloNoa","nickname":"吞吞吐吐突突test099","phone":"10000000099","regTime":1541835544000,"gender":"male","avatar":"http://timingtest-imgservice.kr-cell.com/image/timing-test_60425_1614759782874_ysbt6gntlpilkf4ywc2q","avatarInfo":{"id":1002127,"width":1080,"height":1080,"isGif":false,"url":"http://timingtest-imgservice.kr-cell.com/image/timing-test_60425_1614759782874_ysbt6gntlpilkf4ywc2q"},"isBasicInfoSet":true,"completeGuide":true,"isMakeFriendInfoSet":true,"commonAccount":null,"category":{"name":"英语六级/电子竞技","alias":"英语六级/电子竞技","id":"285492","avatar":""},"userCategoryID":"538692","learningState":"none","categoryTotalDuration":"168583787","categoryHasMission":false,"farmModeStatus":"normal","studentID":"","birthday":974205481000,"identity":"else","todayLearningTimes":0,"noviceGuideStatus":{"friendChat":false,"login":false},"friendCount":19,"channelID":0,"showNewGroupGuide":true}</t>
+          <t>{"result":true,"errorCode":0,"errorMsg":"成功","isNew":false,"userID":60425,"userKey":"W1y2iok99GK6Hwol9zgJSVp-4drHhgX8","nickname":"吞吞吐吐突突test099","phone":"10000000099","regTime":1541835544000,"gender":"male","avatar":"http://timingtest-imgservice.kr-cell.com/image/timing-test_60425_1614759782874_ysbt6gntlpilkf4ywc2q","avatarInfo":{"id":1002127,"width":1080,"height":1080,"isGif":false,"url":"http://timingtest-imgservice.kr-cell.com/image/timing-test_60425_1614759782874_ysbt6gntlpilkf4ywc2q"},"isBasicInfoSet":true,"completeGuide":true,"isMakeFriendInfoSet":true,"commonAccount":null,"category":{"name":"英语六级/电子竞技","alias":"英语六级/电子竞技","id":"285492","avatar":""},"userCategoryID":"538692","learningState":"none","categoryTotalDuration":"168583787","categoryHasMission":false,"farmModeStatus":"normal","studentID":"","birthday":974205481000,"identity":"else","todayLearningTimes":0,"noviceGuideStatus":{"friendChat":false,"login":false},"friendCount":19,"channelID":0,"showNewGroupGuide":true}</t>
         </is>
       </c>
     </row>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>{"result":true,"errorCode":0,"errorMsg":"成功","isNew":false,"userID":60427,"userKey":"GX9Isj-JbPaJLhvrYYPIEhq1VekASopz","nickname":"test098","phone":"10000000098","regTime":1541835583000,"gender":"female","avatar":"http://timingtest-imgservice.kr-cell.com/image/60427_1541835732579_jx2mshy26dwxftb2s0k2","avatarInfo":{"id":10910,"width":720,"height":720,"isGif":false,"url":"http://timingtest-imgservice.kr-cell.com/image/60427_1541835732579_jx2mshy26dwxftb2s0k2"},"isBasicInfoSet":true,"completeGuide":true,"isMakeFriendInfoSet":true,"commonAccount":null,"category":{"name":"考研/我是一个超长的自定义标签/我是一个很长更长更长的自定义","alias":"考研/我是一个超长的自定义标签/我是一个很长更长更长的自定义","id":"2","avatar":""},"userCategoryID":"538618","learningState":"none","categoryTotalDuration":"191650761","categoryHasMission":false,"farmModeStatus":"normal","studentID":"","birthday":879147649000,"identity":"student","todayLearningTimes":0,"noviceGuideStatus":{"friendChat":false,"login":false},"friendCount":20,"channelID":245,"showNewGroupGuide":true}</t>
+          <t>{"result":true,"errorCode":0,"errorMsg":"成功","isNew":false,"userID":60427,"userKey":"rLgBdmks36FBFUlAVyvS17x4JiRdn7iQ","nickname":"test098","phone":"10000000098","regTime":1541835583000,"gender":"female","avatar":"http://timingtest-imgservice.kr-cell.com/image/60427_1541835732579_jx2mshy26dwxftb2s0k2","avatarInfo":{"id":10910,"width":720,"height":720,"isGif":false,"url":"http://timingtest-imgservice.kr-cell.com/image/60427_1541835732579_jx2mshy26dwxftb2s0k2"},"isBasicInfoSet":true,"completeGuide":true,"isMakeFriendInfoSet":true,"commonAccount":null,"category":{"name":"考研/我是一个超长的自定义标签/我是一个很长更长更长的自定义","alias":"考研/我是一个超长的自定义标签/我是一个很长更长更长的自定义","id":"2","avatar":""},"userCategoryID":"538618","learningState":"none","categoryTotalDuration":"191650761","categoryHasMission":false,"farmModeStatus":"normal","studentID":"","birthday":879147649000,"identity":"student","todayLearningTimes":0,"noviceGuideStatus":{"friendChat":false,"login":false},"friendCount":20,"channelID":245,"showNewGroupGuide":true}</t>
         </is>
       </c>
     </row>

--- a/test_data/test_demo.xlsx
+++ b/test_data/test_demo.xlsx
@@ -1,244 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="22368" windowHeight="9420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="case" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="case" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
-  <si>
-    <t>case_id</t>
-  </si>
-  <si>
-    <t>case_name</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>headers</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>response_body</t>
-  </si>
-  <si>
-    <t>result</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>http://api.kr-cell.net/login-register/login-by-phone</t>
-  </si>
-  <si>
-    <t>{'Content-Type':'application/json'}</t>
-  </si>
-  <si>
-    <t>{'phone':'10000000099','password':'111111'}</t>
-  </si>
-  <si>
-    <t>res.status_code == 200</t>
-  </si>
-  <si>
-    <t>{"result":true,"errorCode":0,"errorMsg":"成功","isNew":false,"userID":60425,"userKey":"PnF4G3WtBqXXppQdgmxoecxGHwm19h9J","nickname":"吞吞吐吐突突test099","phone":"10000000099","regTime":1541835544000,"gender":"male","avatar":"http://timingtest-imgservice.kr-cell.com/image/timing-test_60425_1614759782874_ysbt6gntlpilkf4ywc2q","avatarInfo":{"id":1002127,"width":1080,"height":1080,"isGif":false,"url":"http://timingtest-imgservice.kr-cell.com/image/timing-test_60425_1614759782874_ysbt6gntlpilkf4ywc2q"},"isBasicInfoSet":true,"completeGuide":true,"isMakeFriendInfoSet":true,"commonAccount":null,"category":{"name":"英语六级/电子竞技","alias":"英语六级/电子竞技","id":"285492","avatar":""},"userCategoryID":"538692","learningState":"none","categoryTotalDuration":"168583787","categoryHasMission":false,"farmModeStatus":"normal","studentID":"","birthday":974205481000,"identity":"else","todayLearningTimes":0,"noviceGuideStatus":{"friendChat":false,"login":false},"friendCount":19,"channelID":0,"showNewGroupGuide":true}</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>{'phone':'10000000098','password':'111111'}</t>
-  </si>
-  <si>
-    <t>{"result":true,"errorCode":0,"errorMsg":"成功","isNew":false,"userID":60427,"userKey":"KjJbQ_mQpQKWEis-FCeZ8eBhVXfFxt8q","nickname":"test098","phone":"10000000098","regTime":1541835583000,"gender":"female","avatar":"http://timingtest-imgservice.kr-cell.com/image/60427_1541835732579_jx2mshy26dwxftb2s0k2","avatarInfo":{"id":10910,"width":720,"height":720,"isGif":false,"url":"http://timingtest-imgservice.kr-cell.com/image/60427_1541835732579_jx2mshy26dwxftb2s0k2"},"isBasicInfoSet":true,"completeGuide":true,"isMakeFriendInfoSet":true,"commonAccount":null,"category":{"name":"考研/我是一个超长的自定义标签/我是一个很长更长更长的自定义","alias":"考研/我是一个超长的自定义标签/我是一个很长更长更长的自定义","id":"2","avatar":""},"userCategoryID":"538618","learningState":"none","categoryTotalDuration":"191650761","categoryHasMission":false,"farmModeStatus":"normal","studentID":"","birthday":879147649000,"identity":"student","todayLearningTimes":0,"noviceGuideStatus":{"friendChat":false,"login":false},"friendCount":20,"channelID":245,"showNewGroupGuide":true}</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="20">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -538,167 +471,167 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -754,11 +687,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1018,120 +1014,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="8.88888888888889" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.8888888888889" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.6666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="57.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7777777777778" style="2" customWidth="1"/>
-    <col min="6" max="6" width="47.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.6666666666667" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.88888888888889" style="4" customWidth="1"/>
+    <col width="8.888888888888889" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13.8888888888889" customWidth="1" style="3" min="2" max="2"/>
+    <col width="17.6666666666667" customWidth="1" style="3" min="3" max="3"/>
+    <col width="57.5555555555556" customWidth="1" style="1" min="4" max="4"/>
+    <col width="38.7777777777778" customWidth="1" style="3" min="5" max="5"/>
+    <col width="47.7777777777778" customWidth="1" style="3" min="6" max="6"/>
+    <col width="24.6666666666667" customWidth="1" style="3" min="7" max="7"/>
+    <col width="21" customWidth="1" style="3" min="8" max="8"/>
+    <col width="8.888888888888889" customWidth="1" style="4" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>case_name</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>response_body</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" s="3">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>http://api.kr-cell.net/login-register/login-by-phone</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>{'Content-Type':'application/json'}</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>{'phone':'10000000099','password':'111111'}</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>res.status_code == 200</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>{"result":true,"errorCode":0,"errorMsg":"成功","isNew":false,"userID":60425,"userKey":"TWCc5zm30mBm1Qv3ldC2papBYC8iSgAb","nickname":"吞吞吐吐突突test099","phone":"10000000099","regTime":1541835544000,"gender":"male","avatar":"http://timingtest-imgservice.kr-cell.com/image/timing-test_60425_1614759782874_ysbt6gntlpilkf4ywc2q","avatarInfo":{"id":1002127,"width":1080,"height":1080,"isGif":false,"url":"http://timingtest-imgservice.kr-cell.com/image/timing-test_60425_1614759782874_ysbt6gntlpilkf4ywc2q"},"isBasicInfoSet":true,"completeGuide":true,"isMakeFriendInfoSet":true,"commonAccount":null,"category":{"name":"英语六级/电子竞技","alias":"英语六级/电子竞技","id":"285492","avatar":""},"userCategoryID":"538692","learningState":"none","categoryTotalDuration":"168583787","categoryHasMission":false,"farmModeStatus":"normal","studentID":"","birthday":974205481000,"identity":"else","todayLearningTimes":0,"noviceGuideStatus":{"friendChat":false,"login":false},"friendCount":19,"channelID":0,"showNewGroupGuide":true}</t>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" s="3">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>16</v>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>http://api.kr-cell.net/login-register/login-by-phone</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>{'Content-Type':'application/json'}</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>{'phone':'10000000098','password':'111111'}</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>res.status_code == 200</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>{"result":true,"errorCode":0,"errorMsg":"成功","isNew":false,"userID":60427,"userKey":"2Aa3QJ_mvkwFs1jPCLpevTYh-6ouxfOe","nickname":"test098","phone":"10000000098","regTime":1541835583000,"gender":"female","avatar":"http://timingtest-imgservice.kr-cell.com/image/60427_1541835732579_jx2mshy26dwxftb2s0k2","avatarInfo":{"id":10910,"width":720,"height":720,"isGif":false,"url":"http://timingtest-imgservice.kr-cell.com/image/60427_1541835732579_jx2mshy26dwxftb2s0k2"},"isBasicInfoSet":true,"completeGuide":true,"isMakeFriendInfoSet":true,"commonAccount":null,"category":{"name":"考研/我是一个超长的自定义标签/我是一个很长更长更长的自定义","alias":"考研/我是一个超长的自定义标签/我是一个很长更长更长的自定义","id":"2","avatar":""},"userCategoryID":"538618","learningState":"none","categoryTotalDuration":"191650761","categoryHasMission":false,"farmModeStatus":"normal","studentID":"","birthday":879147649000,"identity":"student","todayLearningTimes":0,"noviceGuideStatus":{"friendChat":false,"login":false},"friendCount":20,"channelID":245,"showNewGroupGuide":true}</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://api.kr-cell.net/login-register/login-by-phone" tooltip="http://api.kr-cell.net/login-register/login-by-phone"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://api.kr-cell.net/login-register/login-by-phone" tooltip="http://api.kr-cell.net/login-register/login-by-phone"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D2" tooltip="http://api.kr-cell.net/login-register/login-by-phone" display="http://api.kr-cell.net/login-register/login-by-phone" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D3" tooltip="http://api.kr-cell.net/login-register/login-by-phone" display="http://api.kr-cell.net/login-register/login-by-phone" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>